--- a/praca_sierpien.xlsx
+++ b/praca_sierpien.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075"/>
+    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Data</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Odrobione:</t>
   </si>
   <si>
-    <t>6h 10min</t>
-  </si>
-  <si>
     <t>64h</t>
   </si>
   <si>
@@ -82,6 +79,12 @@
   </si>
   <si>
     <t>wykorzystane 20min</t>
+  </si>
+  <si>
+    <t>4h 20min</t>
+  </si>
+  <si>
+    <t>10h 30min</t>
   </si>
 </sst>
 </file>
@@ -145,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -162,6 +165,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -466,18 +472,18 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="39.42578125" customWidth="1"/>
+    <col min="4" max="4" width="39.44140625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,10 +500,10 @@
         <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -508,16 +514,16 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -528,10 +534,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -543,7 +549,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="6">
         <v>0.375</v>
@@ -552,10 +558,10 @@
         <v>0.625</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -567,7 +573,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="6">
         <v>0.375</v>
@@ -577,7 +583,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -589,7 +595,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="6">
         <v>0.375</v>
@@ -599,7 +605,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -610,10 +616,10 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -624,10 +630,10 @@
         <v>0.4375</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="6">
         <v>0.67361111111111116</v>
@@ -636,10 +642,10 @@
         <v>0.8027777777777777</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -651,7 +657,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="6">
         <v>0.375</v>
@@ -661,83 +667,89 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="7"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -747,7 +759,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -759,7 +771,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/praca_sierpien.xlsx
+++ b/praca_sierpien.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Data</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>10h 30min</t>
+  </si>
+  <si>
+    <t>12.08.14.</t>
   </si>
 </sst>
 </file>
@@ -471,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,14 +683,22 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="A16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.625</v>
+      </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
+      <c r="B17" s="6">
+        <v>0.76041666666666663</v>
+      </c>
       <c r="C17" s="8"/>
       <c r="D17" s="7"/>
     </row>

--- a/praca_sierpien.xlsx
+++ b/praca_sierpien.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Data</t>
   </si>
@@ -84,10 +84,16 @@
     <t>4h 20min</t>
   </si>
   <si>
-    <t>10h 30min</t>
-  </si>
-  <si>
     <t>12.08.14.</t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t>15h 30min</t>
+  </si>
+  <si>
+    <t>13.08.14.</t>
   </si>
 </sst>
 </file>
@@ -474,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,7 +529,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -684,7 +690,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="6">
         <v>0.29166666666666669</v>
@@ -699,11 +705,17 @@
       <c r="B17" s="6">
         <v>0.76041666666666663</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
+      <c r="C17" s="6">
+        <v>0.96875</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
+      <c r="A18" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="7"/>

--- a/praca_sierpien.xlsx
+++ b/praca_sierpien.xlsx
@@ -481,7 +481,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,7 +716,9 @@
       <c r="A18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="6">
+        <v>0.29166666666666669</v>
+      </c>
       <c r="C18" s="8"/>
       <c r="D18" s="7"/>
     </row>

--- a/praca_sierpien.xlsx
+++ b/praca_sierpien.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Data</t>
   </si>
@@ -90,10 +90,13 @@
     <t>5h</t>
   </si>
   <si>
-    <t>15h 30min</t>
-  </si>
-  <si>
     <t>13.08.14.</t>
+  </si>
+  <si>
+    <t>1h 40min</t>
+  </si>
+  <si>
+    <t>17h 10min</t>
   </si>
 </sst>
 </file>
@@ -481,18 +484,18 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="39.44140625" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -529,10 +532,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -546,7 +549,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -558,7 +561,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="6">
         <v>0.375</v>
@@ -570,7 +573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -582,7 +585,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="6">
         <v>0.375</v>
@@ -592,7 +595,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -604,7 +607,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="6">
         <v>0.375</v>
@@ -614,7 +617,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -628,7 +631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -642,7 +645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="6">
         <v>0.67361111111111116</v>
@@ -654,7 +657,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -666,7 +669,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="6">
         <v>0.375</v>
@@ -676,7 +679,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="6">
         <v>0.81944444444444453</v>
@@ -688,7 +691,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -700,7 +703,7 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="6">
         <v>0.76041666666666663</v>
@@ -712,29 +715,37 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="6">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="6">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -742,31 +753,31 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -784,7 +795,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -796,7 +807,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/praca_sierpien.xlsx
+++ b/praca_sierpien.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075"/>
+    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Data</t>
   </si>
@@ -96,7 +96,13 @@
     <t>1h 40min</t>
   </si>
   <si>
-    <t>17h 10min</t>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>21h 10min</t>
+  </si>
+  <si>
+    <t>14.08.14.</t>
   </si>
 </sst>
 </file>
@@ -484,18 +490,18 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="39.42578125" customWidth="1"/>
+    <col min="4" max="4" width="39.44140625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -532,10 +538,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -549,7 +555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -561,7 +567,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="6">
         <v>0.375</v>
@@ -573,7 +579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -585,7 +591,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="6">
         <v>0.375</v>
@@ -595,7 +601,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -607,7 +613,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="6">
         <v>0.375</v>
@@ -617,7 +623,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -631,7 +637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -645,7 +651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="6">
         <v>0.67361111111111116</v>
@@ -657,7 +663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -669,7 +675,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="6">
         <v>0.375</v>
@@ -679,7 +685,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="6">
         <v>0.81944444444444453</v>
@@ -691,7 +697,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -703,7 +709,7 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="6">
         <v>0.76041666666666663</v>
@@ -715,7 +721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -729,7 +735,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="6">
         <v>0.375</v>
@@ -739,45 +745,55 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
+      <c r="B20" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.29166666666666669</v>
+      </c>
       <c r="C21" s="8"/>
       <c r="D21" s="7"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -795,7 +811,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -807,7 +823,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/praca_sierpien.xlsx
+++ b/praca_sierpien.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Data</t>
   </si>
@@ -99,10 +99,13 @@
     <t>4h</t>
   </si>
   <si>
-    <t>21h 10min</t>
-  </si>
-  <si>
     <t>14.08.14.</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>23h 10min</t>
   </si>
 </sst>
 </file>
@@ -490,18 +493,18 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="39.44140625" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,7 +524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -538,10 +541,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -555,7 +558,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -567,7 +570,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="6">
         <v>0.375</v>
@@ -579,7 +582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -591,7 +594,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="6">
         <v>0.375</v>
@@ -601,7 +604,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -613,7 +616,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="6">
         <v>0.375</v>
@@ -623,7 +626,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -637,7 +640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -651,7 +654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="6">
         <v>0.67361111111111116</v>
@@ -663,7 +666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -675,7 +678,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="6">
         <v>0.375</v>
@@ -685,7 +688,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="6">
         <v>0.81944444444444453</v>
@@ -697,7 +700,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -709,7 +712,7 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="6">
         <v>0.76041666666666663</v>
@@ -721,7 +724,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -735,7 +738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="6">
         <v>0.375</v>
@@ -745,7 +748,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="6">
         <v>0.75</v>
@@ -757,43 +760,47 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="6">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
+      <c r="C21" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -811,7 +818,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -823,7 +830,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/praca_sierpien.xlsx
+++ b/praca_sierpien.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Data</t>
   </si>
@@ -105,7 +105,22 @@
     <t>2h</t>
   </si>
   <si>
-    <t>23h 10min</t>
+    <t>15.08.14.</t>
+  </si>
+  <si>
+    <t>16.08.14.</t>
+  </si>
+  <si>
+    <t>18.08.14.</t>
+  </si>
+  <si>
+    <t>19.08.14.</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33h </t>
   </si>
 </sst>
 </file>
@@ -492,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +556,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -777,27 +792,55 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="7"/>
+      <c r="A22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="7"/>
+      <c r="A23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+      <c r="A24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="A25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.74305555555555547</v>
+      </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">

--- a/praca_sierpien.xlsx
+++ b/praca_sierpien.xlsx
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,7 +839,7 @@
         <v>0.36805555555555558</v>
       </c>
       <c r="C25" s="6">
-        <v>0.74305555555555547</v>
+        <v>0.75</v>
       </c>
       <c r="D25" s="7"/>
     </row>

--- a/praca_sierpien.xlsx
+++ b/praca_sierpien.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Data</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t xml:space="preserve">33h </t>
+  </si>
+  <si>
+    <t>20.08.14.</t>
+  </si>
+  <si>
+    <t>1h 10 min</t>
   </si>
 </sst>
 </file>
@@ -184,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -201,9 +207,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -508,7 +511,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,12 +844,20 @@
       <c r="C25" s="6">
         <v>0.75</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+      <c r="A26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.625</v>
+      </c>
       <c r="D26" s="7"/>
     </row>
   </sheetData>

--- a/praca_sierpien.xlsx
+++ b/praca_sierpien.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075"/>
+    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Data</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>1h 10 min</t>
+  </si>
+  <si>
+    <t>brak 1h</t>
   </si>
 </sst>
 </file>
@@ -510,19 +513,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="39.42578125" customWidth="1"/>
+    <col min="4" max="4" width="39.44140625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -562,7 +565,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -576,7 +579,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -588,7 +591,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="6">
         <v>0.375</v>
@@ -600,7 +603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -612,7 +615,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="6">
         <v>0.375</v>
@@ -622,7 +625,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -634,7 +637,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="6">
         <v>0.375</v>
@@ -644,7 +647,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -658,7 +661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -672,7 +675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="6">
         <v>0.67361111111111116</v>
@@ -684,7 +687,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -696,7 +699,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="6">
         <v>0.375</v>
@@ -706,7 +709,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="6">
         <v>0.81944444444444453</v>
@@ -718,7 +721,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -730,7 +733,7 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="6">
         <v>0.76041666666666663</v>
@@ -742,7 +745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -756,7 +759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="6">
         <v>0.375</v>
@@ -766,7 +769,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="6">
         <v>0.75</v>
@@ -778,7 +781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -794,7 +797,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
@@ -802,13 +805,13 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="C22" s="6">
-        <v>0.91666666666666663</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
@@ -822,7 +825,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
@@ -834,7 +837,7 @@
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>32</v>
       </c>
@@ -848,7 +851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>35</v>
       </c>
@@ -858,7 +861,9 @@
       <c r="C26" s="6">
         <v>0.625</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -872,7 +877,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -884,7 +889,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/praca_sierpien.xlsx
+++ b/praca_sierpien.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Data</t>
   </si>
@@ -120,16 +120,19 @@
     <t>8h</t>
   </si>
   <si>
-    <t xml:space="preserve">33h </t>
-  </si>
-  <si>
     <t>20.08.14.</t>
   </si>
   <si>
-    <t>1h 10 min</t>
-  </si>
-  <si>
-    <t>brak 1h</t>
+    <t>21.08.14.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34h </t>
+  </si>
+  <si>
+    <t>1h 10min</t>
+  </si>
+  <si>
+    <t>wykorzystane 2h</t>
   </si>
 </sst>
 </file>
@@ -193,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -210,6 +213,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -511,21 +518,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="39.44140625" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -562,10 +569,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -579,7 +586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -591,7 +598,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="6">
         <v>0.375</v>
@@ -603,7 +610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -615,7 +622,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="6">
         <v>0.375</v>
@@ -625,7 +632,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -637,7 +644,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="6">
         <v>0.375</v>
@@ -647,7 +654,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -661,7 +668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -675,7 +682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="6">
         <v>0.67361111111111116</v>
@@ -687,7 +694,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -699,7 +706,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="6">
         <v>0.375</v>
@@ -709,7 +716,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="6">
         <v>0.81944444444444453</v>
@@ -721,7 +728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -733,7 +740,7 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="6">
         <v>0.76041666666666663</v>
@@ -745,7 +752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -759,7 +766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="6">
         <v>0.375</v>
@@ -769,7 +776,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="6">
         <v>0.75</v>
@@ -781,7 +788,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -797,7 +804,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
@@ -811,7 +818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
@@ -825,7 +832,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
@@ -837,7 +844,7 @@
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>32</v>
       </c>
@@ -848,12 +855,12 @@
         <v>0.75</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="6">
         <v>0.375</v>
@@ -862,8 +869,80 @@
         <v>0.625</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -877,7 +956,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -889,7 +968,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/praca_sierpien.xlsx
+++ b/praca_sierpien.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075"/>
+    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Data</t>
   </si>
@@ -126,13 +126,13 @@
     <t>21.08.14.</t>
   </si>
   <si>
-    <t xml:space="preserve">34h </t>
-  </si>
-  <si>
     <t>1h 10min</t>
   </si>
   <si>
     <t>wykorzystane 2h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38h 15min </t>
   </si>
 </sst>
 </file>
@@ -196,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -215,6 +215,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -521,18 +524,18 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="39.42578125" customWidth="1"/>
+    <col min="4" max="4" width="39.44140625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -569,10 +572,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -586,7 +589,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -598,7 +601,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="6">
         <v>0.375</v>
@@ -610,7 +613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -622,7 +625,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="6">
         <v>0.375</v>
@@ -632,7 +635,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -644,7 +647,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="6">
         <v>0.375</v>
@@ -654,7 +657,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -668,7 +671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -682,7 +685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="6">
         <v>0.67361111111111116</v>
@@ -694,7 +697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -706,7 +709,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="6">
         <v>0.375</v>
@@ -716,7 +719,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="6">
         <v>0.81944444444444453</v>
@@ -728,7 +731,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -740,7 +743,7 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="6">
         <v>0.76041666666666663</v>
@@ -752,7 +755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -766,7 +769,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="6">
         <v>0.375</v>
@@ -776,7 +779,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="6">
         <v>0.75</v>
@@ -788,7 +791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -804,7 +807,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
@@ -818,7 +821,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
@@ -832,7 +835,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
@@ -844,7 +847,7 @@
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>32</v>
       </c>
@@ -855,10 +858,10 @@
         <v>0.75</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
@@ -869,10 +872,10 @@
         <v>0.625</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>35</v>
       </c>
@@ -884,61 +887,67 @@
       </c>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C28" s="10">
+        <v>3.125E-2</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -956,7 +965,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -968,7 +977,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/praca_sierpien.xlsx
+++ b/praca_sierpien.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Data</t>
   </si>
@@ -132,7 +132,19 @@
     <t>wykorzystane 2h</t>
   </si>
   <si>
-    <t xml:space="preserve">38h 15min </t>
+    <t>4h 15min</t>
+  </si>
+  <si>
+    <t>22.08.14.</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>30min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39h 45min </t>
   </si>
 </sst>
 </file>
@@ -524,18 +536,18 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="39.44140625" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -572,10 +584,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -589,7 +601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -601,7 +613,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="6">
         <v>0.375</v>
@@ -613,7 +625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -625,7 +637,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="6">
         <v>0.375</v>
@@ -635,7 +647,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -647,7 +659,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="6">
         <v>0.375</v>
@@ -657,7 +669,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -671,7 +683,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -685,7 +697,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="6">
         <v>0.67361111111111116</v>
@@ -697,7 +709,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -709,7 +721,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="6">
         <v>0.375</v>
@@ -719,7 +731,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="6">
         <v>0.81944444444444453</v>
@@ -731,7 +743,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -743,7 +755,7 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="6">
         <v>0.76041666666666663</v>
@@ -755,7 +767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -769,7 +781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="6">
         <v>0.375</v>
@@ -779,7 +791,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="6">
         <v>0.75</v>
@@ -791,7 +803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -807,7 +819,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
@@ -821,7 +833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
@@ -835,7 +847,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
@@ -847,7 +859,7 @@
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>32</v>
       </c>
@@ -861,7 +873,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
@@ -875,7 +887,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>35</v>
       </c>
@@ -887,7 +899,7 @@
       </c>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="6">
         <v>0.85416666666666663</v>
@@ -896,58 +908,72 @@
         <v>3.125E-2</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="6">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="6">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -965,7 +991,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -977,7 +1003,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/praca_sierpien.xlsx
+++ b/praca_sierpien.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Data</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t xml:space="preserve">39h 45min </t>
+  </si>
+  <si>
+    <t>25.08.14.</t>
   </si>
 </sst>
 </file>
@@ -536,7 +539,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,9 +941,15 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+      <c r="A31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.72222222222222221</v>
+      </c>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">

--- a/praca_sierpien.xlsx
+++ b/praca_sierpien.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Data</t>
   </si>
@@ -144,10 +144,13 @@
     <t>30min</t>
   </si>
   <si>
-    <t xml:space="preserve">39h 45min </t>
-  </si>
-  <si>
     <t>25.08.14.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44h </t>
+  </si>
+  <si>
+    <t>26.08.14.</t>
   </si>
 </sst>
 </file>
@@ -538,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +590,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -942,7 +945,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="6">
         <v>0.375</v>
@@ -950,39 +953,53 @@
       <c r="C31" s="6">
         <v>0.72222222222222221</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
+      <c r="B32" s="6">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="6">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0.60069444444444442</v>
+      </c>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>

--- a/praca_sierpien.xlsx
+++ b/praca_sierpien.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075"/>
+    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Data</t>
   </si>
@@ -147,10 +147,10 @@
     <t>25.08.14.</t>
   </si>
   <si>
-    <t xml:space="preserve">44h </t>
-  </si>
-  <si>
     <t>26.08.14.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46h </t>
   </si>
 </sst>
 </file>
@@ -541,19 +541,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="39.42578125" customWidth="1"/>
+    <col min="4" max="4" width="39.44140625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -590,10 +590,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -607,7 +607,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -619,7 +619,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="6">
         <v>0.375</v>
@@ -631,7 +631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -643,7 +643,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="6">
         <v>0.375</v>
@@ -653,7 +653,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -665,7 +665,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="6">
         <v>0.375</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -689,7 +689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -703,7 +703,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="6">
         <v>0.67361111111111116</v>
@@ -715,7 +715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -727,7 +727,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="6">
         <v>0.375</v>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="6">
         <v>0.81944444444444453</v>
@@ -749,7 +749,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -761,7 +761,7 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="6">
         <v>0.76041666666666663</v>
@@ -773,7 +773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -787,7 +787,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="6">
         <v>0.375</v>
@@ -797,7 +797,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="6">
         <v>0.75</v>
@@ -809,7 +809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -825,7 +825,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
@@ -839,7 +839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
@@ -853,7 +853,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
@@ -865,7 +865,7 @@
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>32</v>
       </c>
@@ -879,7 +879,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
@@ -893,7 +893,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>35</v>
       </c>
@@ -905,7 +905,7 @@
       </c>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="6">
         <v>0.85416666666666663</v>
@@ -917,7 +917,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>39</v>
       </c>
@@ -931,7 +931,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="6">
         <v>0.29166666666666669</v>
@@ -943,7 +943,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>42</v>
       </c>
@@ -957,7 +957,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="6">
         <v>0.77083333333333337</v>
@@ -969,9 +969,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="6">
         <v>0.2638888888888889</v>
@@ -981,25 +981,31 @@
       </c>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="6">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -1017,7 +1023,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1029,7 +1035,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/praca_sierpien.xlsx
+++ b/praca_sierpien.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Data</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t xml:space="preserve">46h </t>
+  </si>
+  <si>
+    <t>27.08.14.</t>
   </si>
 </sst>
 </file>
@@ -542,18 +545,18 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="39.44140625" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -593,7 +596,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -607,7 +610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -619,7 +622,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="6">
         <v>0.375</v>
@@ -631,7 +634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -643,7 +646,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="6">
         <v>0.375</v>
@@ -653,7 +656,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -665,7 +668,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="6">
         <v>0.375</v>
@@ -675,7 +678,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -689,7 +692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -703,7 +706,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="6">
         <v>0.67361111111111116</v>
@@ -715,7 +718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -727,7 +730,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="6">
         <v>0.375</v>
@@ -737,7 +740,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="6">
         <v>0.81944444444444453</v>
@@ -749,7 +752,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -761,7 +764,7 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="6">
         <v>0.76041666666666663</v>
@@ -773,7 +776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -787,7 +790,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="6">
         <v>0.375</v>
@@ -797,7 +800,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="6">
         <v>0.75</v>
@@ -809,7 +812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -825,7 +828,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
@@ -839,7 +842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
@@ -853,7 +856,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
@@ -865,7 +868,7 @@
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>32</v>
       </c>
@@ -879,7 +882,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
@@ -893,7 +896,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>35</v>
       </c>
@@ -905,7 +908,7 @@
       </c>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="6">
         <v>0.85416666666666663</v>
@@ -917,7 +920,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>39</v>
       </c>
@@ -931,7 +934,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="6">
         <v>0.29166666666666669</v>
@@ -943,7 +946,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>42</v>
       </c>
@@ -957,7 +960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="6">
         <v>0.77083333333333337</v>
@@ -969,7 +972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>43</v>
       </c>
@@ -981,7 +984,7 @@
       </c>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="6">
         <v>0.77083333333333337</v>
@@ -993,19 +996,25 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
+    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="6">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0.625</v>
+      </c>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -1023,7 +1032,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1035,7 +1044,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/praca_sierpien.xlsx
+++ b/praca_sierpien.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075"/>
+    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>Data</t>
   </si>
@@ -150,10 +150,13 @@
     <t>26.08.14.</t>
   </si>
   <si>
-    <t xml:space="preserve">46h </t>
-  </si>
-  <si>
     <t>27.08.14.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49h </t>
+  </si>
+  <si>
+    <t>28.08.14.</t>
   </si>
 </sst>
 </file>
@@ -544,19 +547,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="39.42578125" customWidth="1"/>
+    <col min="4" max="4" width="39.44140625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -593,10 +596,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -610,7 +613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -622,7 +625,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="6">
         <v>0.375</v>
@@ -634,7 +637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -646,7 +649,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="6">
         <v>0.375</v>
@@ -656,7 +659,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -668,7 +671,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="6">
         <v>0.375</v>
@@ -678,7 +681,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -692,7 +695,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -706,7 +709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="6">
         <v>0.67361111111111116</v>
@@ -718,7 +721,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -730,7 +733,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="6">
         <v>0.375</v>
@@ -740,7 +743,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="6">
         <v>0.81944444444444453</v>
@@ -752,7 +755,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -764,7 +767,7 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="6">
         <v>0.76041666666666663</v>
@@ -776,7 +779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -790,7 +793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="6">
         <v>0.375</v>
@@ -800,7 +803,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="6">
         <v>0.75</v>
@@ -812,7 +815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -828,7 +831,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
@@ -842,7 +845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
@@ -856,7 +859,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
@@ -868,7 +871,7 @@
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>32</v>
       </c>
@@ -882,7 +885,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
@@ -896,7 +899,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>35</v>
       </c>
@@ -908,7 +911,7 @@
       </c>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="6">
         <v>0.85416666666666663</v>
@@ -920,7 +923,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>39</v>
       </c>
@@ -934,7 +937,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="6">
         <v>0.29166666666666669</v>
@@ -946,7 +949,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>42</v>
       </c>
@@ -960,7 +963,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="6">
         <v>0.77083333333333337</v>
@@ -972,7 +975,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>43</v>
       </c>
@@ -984,7 +987,7 @@
       </c>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="6">
         <v>0.77083333333333337</v>
@@ -996,9 +999,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="6">
         <v>0.29166666666666669</v>
@@ -1008,15 +1011,25 @@
       </c>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="9"/>
+      <c r="B36" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="6">
+        <v>0.21527777777777779</v>
+      </c>
       <c r="C37" s="9"/>
       <c r="D37" s="7"/>
     </row>
@@ -1032,7 +1045,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1044,7 +1057,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/praca_sierpien.xlsx
+++ b/praca_sierpien.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="12072"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>Data</t>
   </si>
@@ -153,10 +153,10 @@
     <t>27.08.14.</t>
   </si>
   <si>
-    <t xml:space="preserve">49h </t>
-  </si>
-  <si>
     <t>28.08.14.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50h </t>
   </si>
 </sst>
 </file>
@@ -220,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -238,9 +238,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -547,19 +544,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="39.44140625" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -596,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -613,7 +610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -625,7 +622,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="6">
         <v>0.375</v>
@@ -637,7 +634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -649,7 +646,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="6">
         <v>0.375</v>
@@ -659,7 +656,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -671,7 +668,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="6">
         <v>0.375</v>
@@ -681,7 +678,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -695,7 +692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -709,7 +706,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="6">
         <v>0.67361111111111116</v>
@@ -721,7 +718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -733,7 +730,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="6">
         <v>0.375</v>
@@ -743,7 +740,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="6">
         <v>0.81944444444444453</v>
@@ -755,7 +752,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -767,7 +764,7 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="6">
         <v>0.76041666666666663</v>
@@ -779,7 +776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -793,7 +790,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="6">
         <v>0.375</v>
@@ -803,7 +800,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="6">
         <v>0.75</v>
@@ -815,7 +812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -831,7 +828,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
@@ -845,7 +842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
@@ -859,7 +856,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
@@ -871,7 +868,7 @@
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>32</v>
       </c>
@@ -885,7 +882,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
@@ -899,7 +896,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>35</v>
       </c>
@@ -911,19 +908,19 @@
       </c>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="6">
         <v>0.85416666666666663</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="9">
         <v>3.125E-2</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>39</v>
       </c>
@@ -937,7 +934,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="6">
         <v>0.29166666666666669</v>
@@ -949,7 +946,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>42</v>
       </c>
@@ -963,7 +960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="6">
         <v>0.77083333333333337</v>
@@ -975,7 +972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>43</v>
       </c>
@@ -987,7 +984,7 @@
       </c>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="6">
         <v>0.77083333333333337</v>
@@ -999,7 +996,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>44</v>
       </c>
@@ -1011,7 +1008,7 @@
       </c>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="6">
         <v>0.79166666666666663</v>
@@ -1023,15 +1020,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="6">
         <v>0.21527777777777779</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="7"/>
+      <c r="C37" s="6">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1045,7 +1046,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1057,7 +1058,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/praca_sierpien.xlsx
+++ b/praca_sierpien.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>Data</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t xml:space="preserve">50h </t>
+  </si>
+  <si>
+    <t>29.08.14.</t>
   </si>
 </sst>
 </file>
@@ -220,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -239,6 +242,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -542,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,6 +1039,30 @@
       <c r="D37" s="7" t="s">
         <v>40</v>
       </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="6">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
